--- a/SCIP_summer-pilot_data_ALL.xlsx
+++ b/SCIP_summer-pilot_data_ALL.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pooja/Documents/GitHub/ti-elmo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F6E6223-0D3A-8D4F-9113-94371C330C41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233840B2-BA98-5A4A-A19D-73254CBBA23E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2400" windowWidth="25440" windowHeight="14760" xr2:uid="{233A14E8-AB03-6448-A084-18D1E53CC262}"/>
+    <workbookView xWindow="160" yWindow="480" windowWidth="25440" windowHeight="14760" xr2:uid="{233A14E8-AB03-6448-A084-18D1E53CC262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="18">
   <si>
     <t>subjectNum</t>
   </si>
@@ -69,15 +69,6 @@
     <t>prefam</t>
   </si>
   <si>
-    <t>block1_acc</t>
-  </si>
-  <si>
-    <t>block2_acc</t>
-  </si>
-  <si>
-    <t>tot_acc</t>
-  </si>
-  <si>
     <t>piggyback</t>
   </si>
   <si>
@@ -92,12 +83,15 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t xml:space="preserve">order </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +137,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,6 +173,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30E48DB-0F16-714E-95FA-770FCA6FDEB7}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,13 +504,13 @@
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" customWidth="1"/>
     <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,20 +547,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -566,7 +562,7 @@
         <v>4.42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -593,22 +589,16 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N2" s="3">
-        <v>3</v>
-      </c>
-      <c r="O2" s="3">
-        <v>5</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -616,7 +606,7 @@
         <v>5.84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -643,22 +633,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N3" s="3">
-        <v>3</v>
-      </c>
-      <c r="O3" s="3">
-        <v>6</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -666,7 +650,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -693,22 +677,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N4" s="3">
-        <v>3</v>
-      </c>
-      <c r="O4" s="3">
-        <v>6</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -716,7 +694,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -743,22 +721,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N5" s="3">
-        <v>2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>5</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -766,7 +738,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -793,22 +765,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -816,7 +782,7 @@
         <v>3.94</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -843,22 +809,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -866,7 +826,7 @@
         <v>3.27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -893,22 +853,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N8" s="3">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>6</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -916,7 +870,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -943,22 +897,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
       </c>
-      <c r="O9" s="3">
-        <v>4</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -966,7 +914,7 @@
         <v>5.53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -993,22 +941,16 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N10" s="3">
-        <v>2</v>
-      </c>
-      <c r="O10" s="3">
-        <v>6</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1016,7 +958,7 @@
         <v>5.07</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1043,22 +985,16 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N11" s="3">
-        <v>2</v>
-      </c>
-      <c r="O11" s="3">
-        <v>5</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1066,7 +1002,7 @@
         <v>5.36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -1093,22 +1029,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N12" s="3">
-        <v>2</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1116,7 +1046,7 @@
         <v>5.31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1143,22 +1073,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N13" s="3">
-        <v>2</v>
-      </c>
-      <c r="O13" s="3">
-        <v>5</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1166,7 +1090,7 @@
         <v>5.37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1193,22 +1117,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N14" s="3">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>7</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1216,7 +1134,7 @@
         <v>5.19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -1243,22 +1161,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N15" s="3">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1266,7 +1178,7 @@
         <v>5.56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -1293,22 +1205,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="3">
-        <v>5</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1316,7 +1222,7 @@
         <v>3.66</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1343,22 +1249,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N17" s="3">
-        <v>2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1366,7 +1266,7 @@
         <v>4.5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1393,22 +1293,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
       </c>
-      <c r="O18" s="3">
-        <v>4</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1416,7 +1310,7 @@
         <v>4.57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1443,22 +1337,16 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="O19" s="3">
-        <v>3</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -1466,7 +1354,7 @@
         <v>4.68</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1493,22 +1381,16 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N20" s="3">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <v>5</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1516,7 +1398,7 @@
         <v>3.85</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -1543,22 +1425,16 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N21" s="3">
-        <v>2</v>
-      </c>
-      <c r="O21" s="3">
-        <v>3</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1566,7 +1442,7 @@
         <v>3.41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -1593,22 +1469,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N22" s="3">
-        <v>2</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -1616,7 +1486,7 @@
         <v>5.66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1643,22 +1513,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N23" s="3">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
-        <v>8</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1666,7 +1530,7 @@
         <v>4.07</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1693,22 +1557,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
       </c>
-      <c r="O24" s="3">
-        <v>5</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -1716,7 +1574,7 @@
         <v>4.54</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -1743,22 +1601,16 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N25" s="3">
-        <v>2</v>
-      </c>
-      <c r="O25" s="3">
-        <v>4</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -1766,7 +1618,7 @@
         <v>4.54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -1793,22 +1645,16 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N26" s="3">
-        <v>2</v>
-      </c>
-      <c r="O26" s="3">
-        <v>4</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -1816,7 +1662,7 @@
         <v>5.62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -1843,22 +1689,16 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>4</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -1866,7 +1706,7 @@
         <v>3.29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1893,22 +1733,16 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N28" s="3">
-        <v>3</v>
-      </c>
-      <c r="O28" s="3">
-        <v>5</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -1916,7 +1750,7 @@
         <v>3.76</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1943,22 +1777,16 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N29" s="3">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3">
-        <v>5</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1966,7 +1794,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1993,22 +1821,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N30" s="3">
-        <v>2</v>
-      </c>
-      <c r="O30" s="3">
-        <v>6</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -2016,7 +1838,7 @@
         <v>4.54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2043,22 +1865,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N31" s="3">
-        <v>2</v>
-      </c>
-      <c r="O31" s="3">
-        <v>6</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -2066,7 +1882,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -2093,22 +1909,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N32" s="3">
-        <v>2</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -2116,7 +1926,7 @@
         <v>3.95</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -2143,22 +1953,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N33" s="3">
-        <v>2</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -2166,7 +1970,7 @@
         <v>3.56</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -2193,22 +1997,16 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N34" s="3">
-        <v>2</v>
-      </c>
-      <c r="O34" s="3">
-        <v>5</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -2216,7 +2014,7 @@
         <v>3.6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -2243,22 +2041,16 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N35" s="3">
         <v>1</v>
       </c>
-      <c r="O35" s="3">
-        <v>3</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>37</v>
       </c>
@@ -2266,7 +2058,7 @@
         <v>3.69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -2293,22 +2085,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N36" s="3">
-        <v>2</v>
-      </c>
-      <c r="O36" s="3">
-        <v>5</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>38</v>
       </c>
@@ -2316,7 +2102,7 @@
         <v>4.55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -2343,22 +2129,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N37" s="3">
-        <v>2</v>
-      </c>
-      <c r="O37" s="3">
-        <v>6</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>39</v>
       </c>
@@ -2366,7 +2146,7 @@
         <v>3.99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2393,22 +2173,16 @@
         <v>1</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
       </c>
-      <c r="O38" s="3">
-        <v>4</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>40</v>
       </c>
@@ -2416,7 +2190,7 @@
         <v>4.28</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -2443,22 +2217,16 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="3">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N39" s="3">
         <v>1</v>
       </c>
-      <c r="O39" s="3">
-        <v>4</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>41</v>
       </c>
@@ -2466,7 +2234,7 @@
         <v>3.4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -2493,22 +2261,16 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" s="3">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N40" s="3">
-        <v>2</v>
-      </c>
-      <c r="O40" s="3">
-        <v>5</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>42</v>
       </c>
@@ -2516,7 +2278,7 @@
         <v>4.63</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -2543,22 +2305,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N41" s="3">
         <v>1</v>
       </c>
-      <c r="O41" s="3">
-        <v>3</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43</v>
       </c>
@@ -2566,7 +2322,7 @@
         <v>5.35</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2593,22 +2349,16 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N42" s="3">
-        <v>2</v>
-      </c>
-      <c r="O42" s="3">
-        <v>4</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>44</v>
       </c>
@@ -2616,7 +2366,7 @@
         <v>4.08</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -2643,22 +2393,16 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3</v>
-      </c>
-      <c r="N43" s="5">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -2666,7 +2410,7 @@
         <v>3.78</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -2693,22 +2437,16 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4</v>
-      </c>
-      <c r="N44" s="5">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <v>5</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -2716,7 +2454,7 @@
         <v>5.33</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2743,22 +2481,16 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2</v>
-      </c>
-      <c r="N45" s="5">
-        <v>2</v>
-      </c>
-      <c r="O45" s="3">
-        <v>4</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -2766,7 +2498,7 @@
         <v>3.99</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2793,22 +2525,16 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3</v>
-      </c>
-      <c r="N46" s="5">
-        <v>2</v>
-      </c>
-      <c r="O46" s="3">
-        <v>5</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -2816,16 +2542,16 @@
         <v>3.49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -2834,31 +2560,25 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>3</v>
-      </c>
-      <c r="N47" s="5">
-        <v>1</v>
-      </c>
-      <c r="O47" s="5">
-        <v>4</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -2866,49 +2586,43 @@
         <v>5.88</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="I48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
       </c>
       <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="5">
-        <v>4</v>
-      </c>
-      <c r="O48" s="5">
-        <v>6</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -2916,16 +2630,16 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -2934,31 +2648,25 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="3">
         <v>1</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3</v>
-      </c>
-      <c r="N49" s="5">
-        <v>1</v>
-      </c>
-      <c r="O49" s="5">
-        <v>4</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -2966,13 +2674,13 @@
         <v>4.62</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2981,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -2992,23 +2700,17 @@
       <c r="K50" s="3">
         <v>1</v>
       </c>
-      <c r="L50" s="3">
-        <v>0</v>
-      </c>
-      <c r="M50" s="3">
-        <v>3</v>
+      <c r="L50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="N50" s="3">
-        <v>1</v>
-      </c>
-      <c r="O50" s="5">
-        <v>4</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>52</v>
       </c>
@@ -3016,49 +2718,43 @@
         <v>3.42</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
       <c r="H51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <v>1</v>
       </c>
-      <c r="L51" s="3">
-        <v>0</v>
-      </c>
-      <c r="M51" s="3">
+      <c r="L51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="3">
         <v>2</v>
       </c>
-      <c r="N51" s="5">
-        <v>3</v>
-      </c>
-      <c r="O51" s="5">
-        <v>5</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -3066,49 +2762,43 @@
         <v>4.01</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="3">
         <v>1</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3</v>
-      </c>
-      <c r="N52" s="5">
+      <c r="L52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" s="3">
         <v>2</v>
       </c>
-      <c r="O52" s="5">
-        <v>5</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>54</v>
       </c>
@@ -3116,7 +2806,7 @@
         <v>3.34</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -3125,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -3137,28 +2827,22 @@
         <v>1</v>
       </c>
       <c r="J53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3">
         <v>1</v>
       </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3">
+      <c r="L53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" s="3">
         <v>2</v>
       </c>
-      <c r="N53" s="5">
-        <v>3</v>
-      </c>
-      <c r="O53" s="5">
-        <v>5</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -3166,10 +2850,10 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -3178,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -3190,25 +2874,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="3">
         <v>2</v>
       </c>
-      <c r="N54" s="5">
-        <v>2</v>
-      </c>
-      <c r="O54" s="5">
-        <v>4</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -3216,49 +2894,43 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
       </c>
       <c r="F55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
       <c r="H55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
       </c>
       <c r="J55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="3">
         <v>1</v>
       </c>
-      <c r="L55" s="3">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3">
+      <c r="L55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" s="3">
         <v>2</v>
       </c>
-      <c r="N55" s="5">
-        <v>2</v>
-      </c>
-      <c r="O55" s="5">
-        <v>4</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -3266,7 +2938,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -3275,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3287,28 +2959,22 @@
         <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3">
-        <v>1</v>
-      </c>
-      <c r="N56" s="5">
-        <v>1</v>
-      </c>
-      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56" s="3">
         <v>2</v>
       </c>
-      <c r="P56" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -3316,49 +2982,43 @@
         <v>3.45</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
       </c>
       <c r="H57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3</v>
-      </c>
-      <c r="N57" s="5">
+      <c r="L57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="3">
         <v>2</v>
       </c>
-      <c r="O57" s="5">
-        <v>5</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -3366,7 +3026,7 @@
         <v>3.12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -3392,23 +3052,17 @@
       <c r="K58" s="3">
         <v>1</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="3">
         <v>2</v>
       </c>
-      <c r="N58" s="5">
-        <v>2</v>
-      </c>
-      <c r="O58" s="5">
-        <v>4</v>
-      </c>
-      <c r="P58" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -3416,7 +3070,7 @@
         <v>5.19</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -3428,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -3440,25 +3094,19 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3</v>
-      </c>
-      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59" s="3">
         <v>2</v>
       </c>
-      <c r="O59" s="5">
-        <v>5</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>61</v>
       </c>
@@ -3466,7 +3114,7 @@
         <v>5.31</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -3475,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -3487,28 +3135,22 @@
         <v>1</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="3">
         <v>1</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4</v>
-      </c>
-      <c r="N60" s="5">
-        <v>3</v>
-      </c>
-      <c r="O60" s="5">
-        <v>7</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>62</v>
       </c>
@@ -3516,49 +3158,43 @@
         <v>5.33</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>1</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="L61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61" s="3">
         <v>2</v>
       </c>
-      <c r="N61" s="5">
-        <v>3</v>
-      </c>
-      <c r="O61" s="5">
-        <v>5</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>63</v>
       </c>
@@ -3566,13 +3202,13 @@
         <v>5.33</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3584,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3592,23 +3228,17 @@
       <c r="K62" s="3">
         <v>1</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="3">
         <v>2</v>
       </c>
-      <c r="N62" s="5">
-        <v>3</v>
-      </c>
-      <c r="O62" s="5">
-        <v>5</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>64</v>
       </c>
@@ -3616,10 +3246,10 @@
         <v>4.5</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -3628,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
@@ -3640,25 +3270,19 @@
         <v>1</v>
       </c>
       <c r="K63" s="3">
-        <v>1</v>
-      </c>
-      <c r="L63" s="3">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3">
-        <v>3</v>
-      </c>
-      <c r="N63" s="5">
-        <v>3</v>
-      </c>
-      <c r="O63" s="5">
-        <v>6</v>
-      </c>
-      <c r="P63" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>65</v>
       </c>
@@ -3666,7 +3290,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -3678,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -3690,25 +3314,19 @@
         <v>1</v>
       </c>
       <c r="K64" s="3">
-        <v>1</v>
-      </c>
-      <c r="L64" s="3">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <v>3</v>
-      </c>
-      <c r="N64" s="5">
-        <v>4</v>
-      </c>
-      <c r="O64" s="5">
-        <v>7</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>66</v>
       </c>
@@ -3716,13 +3334,13 @@
         <v>5.91</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
       </c>
       <c r="E65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="3">
         <v>1</v>
@@ -3734,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -3742,23 +3360,17 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>3</v>
-      </c>
-      <c r="N65" s="5">
+      <c r="L65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" s="3">
         <v>2</v>
       </c>
-      <c r="O65" s="5">
-        <v>5</v>
-      </c>
-      <c r="P65" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>67</v>
       </c>
@@ -3766,47 +3378,51 @@
         <v>5.17</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5">
-        <v>4</v>
-      </c>
-      <c r="O66" s="5">
-        <v>4</v>
-      </c>
-      <c r="P66" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
